--- a/صيدليات دكتور مصطفي طلعت_2026-01-15_14-06.xlsx
+++ b/صيدليات دكتور مصطفي طلعت_2026-01-15_14-06.xlsx
@@ -45,6 +45,9 @@
   </si>
   <si>
     <t>3:1</t>
+  </si>
+  <si>
+    <t>BETADINE ANTISEPTIC SOLN. 10% 60 ML</t>
   </si>
   <si>
     <t>BRUFEN 600MG 30 TAB</t>
@@ -833,17 +836,17 @@
       <c r="F6" s="7"/>
       <c r="G6" s="7"/>
       <c t="s" r="H6" s="8">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="I6" s="8"/>
       <c r="J6" s="8"/>
       <c r="K6" s="8"/>
       <c r="L6" s="9">
-        <v>33</v>
+        <v>55</v>
       </c>
       <c r="M6" s="9"/>
       <c t="s" r="N6" s="7">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="7" ht="25.5" customHeight="1">
@@ -851,7 +854,7 @@
         <v>4</v>
       </c>
       <c t="s" r="B7" s="7">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C7" s="7"/>
       <c r="D7" s="7"/>
@@ -859,17 +862,17 @@
       <c r="F7" s="7"/>
       <c r="G7" s="7"/>
       <c t="s" r="H7" s="8">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="I7" s="8"/>
       <c r="J7" s="8"/>
       <c r="K7" s="8"/>
       <c r="L7" s="9">
-        <v>138</v>
+        <v>33</v>
       </c>
       <c r="M7" s="9"/>
       <c t="s" r="N7" s="7">
-        <v>13</v>
+        <v>8</v>
       </c>
     </row>
     <row r="8" ht="25.5" customHeight="1">
@@ -885,17 +888,17 @@
       <c r="F8" s="7"/>
       <c r="G8" s="7"/>
       <c t="s" r="H8" s="8">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="I8" s="8"/>
       <c r="J8" s="8"/>
       <c r="K8" s="8"/>
       <c r="L8" s="9">
-        <v>35</v>
+        <v>138</v>
       </c>
       <c r="M8" s="9"/>
       <c t="s" r="N8" s="7">
-        <v>17</v>
+        <v>14</v>
       </c>
     </row>
     <row r="9" ht="24.75" customHeight="1">
@@ -903,7 +906,7 @@
         <v>6</v>
       </c>
       <c t="s" r="B9" s="7">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C9" s="7"/>
       <c r="D9" s="7"/>
@@ -911,17 +914,17 @@
       <c r="F9" s="7"/>
       <c r="G9" s="7"/>
       <c t="s" r="H9" s="8">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="I9" s="8"/>
       <c r="J9" s="8"/>
       <c r="K9" s="8"/>
       <c r="L9" s="9">
-        <v>48</v>
+        <v>35</v>
       </c>
       <c r="M9" s="9"/>
       <c t="s" r="N9" s="7">
-        <v>9</v>
+        <v>18</v>
       </c>
     </row>
     <row r="10" ht="25.5" customHeight="1">
@@ -929,7 +932,7 @@
         <v>7</v>
       </c>
       <c t="s" r="B10" s="7">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C10" s="7"/>
       <c r="D10" s="7"/>
@@ -937,13 +940,13 @@
       <c r="F10" s="7"/>
       <c r="G10" s="7"/>
       <c t="s" r="H10" s="8">
-        <v>8</v>
+        <v>20</v>
       </c>
       <c r="I10" s="8"/>
       <c r="J10" s="8"/>
       <c r="K10" s="8"/>
       <c r="L10" s="9">
-        <v>87</v>
+        <v>48</v>
       </c>
       <c r="M10" s="9"/>
       <c t="s" r="N10" s="7">
@@ -963,13 +966,13 @@
       <c r="F11" s="7"/>
       <c r="G11" s="7"/>
       <c t="s" r="H11" s="8">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="I11" s="8"/>
       <c r="J11" s="8"/>
       <c r="K11" s="8"/>
       <c r="L11" s="9">
-        <v>52</v>
+        <v>87</v>
       </c>
       <c r="M11" s="9"/>
       <c t="s" r="N11" s="7">
@@ -989,13 +992,13 @@
       <c r="F12" s="7"/>
       <c r="G12" s="7"/>
       <c t="s" r="H12" s="8">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="I12" s="8"/>
       <c r="J12" s="8"/>
       <c r="K12" s="8"/>
       <c r="L12" s="9">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="M12" s="9"/>
       <c t="s" r="N12" s="7">
@@ -1015,17 +1018,17 @@
       <c r="F13" s="7"/>
       <c r="G13" s="7"/>
       <c t="s" r="H13" s="8">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="I13" s="8"/>
       <c r="J13" s="8"/>
       <c r="K13" s="8"/>
       <c r="L13" s="9">
-        <v>17</v>
+        <v>46</v>
       </c>
       <c r="M13" s="9"/>
       <c t="s" r="N13" s="7">
-        <v>17</v>
+        <v>9</v>
       </c>
     </row>
     <row r="14" ht="24.75" customHeight="1">
@@ -1041,17 +1044,17 @@
       <c r="F14" s="7"/>
       <c r="G14" s="7"/>
       <c t="s" r="H14" s="8">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="I14" s="8"/>
       <c r="J14" s="8"/>
       <c r="K14" s="8"/>
       <c r="L14" s="9">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="M14" s="9"/>
       <c t="s" r="N14" s="7">
-        <v>8</v>
+        <v>18</v>
       </c>
     </row>
     <row r="15" ht="25.5" customHeight="1">
@@ -1067,13 +1070,13 @@
       <c r="F15" s="7"/>
       <c r="G15" s="7"/>
       <c t="s" r="H15" s="8">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="I15" s="8"/>
       <c r="J15" s="8"/>
       <c r="K15" s="8"/>
       <c r="L15" s="9">
-        <v>42</v>
+        <v>29</v>
       </c>
       <c r="M15" s="9"/>
       <c t="s" r="N15" s="7">
@@ -1093,17 +1096,17 @@
       <c r="F16" s="7"/>
       <c r="G16" s="7"/>
       <c t="s" r="H16" s="8">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="I16" s="8"/>
       <c r="J16" s="8"/>
       <c r="K16" s="8"/>
       <c r="L16" s="9">
-        <v>31</v>
+        <v>42</v>
       </c>
       <c r="M16" s="9"/>
       <c t="s" r="N16" s="7">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="17" ht="25.5" customHeight="1">
@@ -1111,7 +1114,7 @@
         <v>14</v>
       </c>
       <c t="s" r="B17" s="7">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C17" s="7"/>
       <c r="D17" s="7"/>
@@ -1119,13 +1122,13 @@
       <c r="F17" s="7"/>
       <c r="G17" s="7"/>
       <c t="s" r="H17" s="8">
-        <v>9</v>
+        <v>28</v>
       </c>
       <c r="I17" s="8"/>
       <c r="J17" s="8"/>
       <c r="K17" s="8"/>
       <c r="L17" s="9">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="M17" s="9"/>
       <c t="s" r="N17" s="7">
@@ -1145,13 +1148,13 @@
       <c r="F18" s="7"/>
       <c r="G18" s="7"/>
       <c t="s" r="H18" s="8">
-        <v>30</v>
+        <v>9</v>
       </c>
       <c r="I18" s="8"/>
       <c r="J18" s="8"/>
       <c r="K18" s="8"/>
       <c r="L18" s="9">
-        <v>50</v>
+        <v>38</v>
       </c>
       <c r="M18" s="9"/>
       <c t="s" r="N18" s="7">
@@ -1163,7 +1166,7 @@
         <v>16</v>
       </c>
       <c t="s" r="B19" s="7">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C19" s="7"/>
       <c r="D19" s="7"/>
@@ -1171,17 +1174,17 @@
       <c r="F19" s="7"/>
       <c r="G19" s="7"/>
       <c t="s" r="H19" s="8">
-        <v>9</v>
+        <v>31</v>
       </c>
       <c r="I19" s="8"/>
       <c r="J19" s="8"/>
       <c r="K19" s="8"/>
       <c r="L19" s="9">
-        <v>37</v>
+        <v>50</v>
       </c>
       <c r="M19" s="9"/>
       <c t="s" r="N19" s="7">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="20" ht="25.5" customHeight="1">
@@ -1197,17 +1200,17 @@
       <c r="F20" s="7"/>
       <c r="G20" s="7"/>
       <c t="s" r="H20" s="8">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="I20" s="8"/>
       <c r="J20" s="8"/>
       <c r="K20" s="8"/>
       <c r="L20" s="9">
-        <v>67</v>
+        <v>37</v>
       </c>
       <c r="M20" s="9"/>
       <c t="s" r="N20" s="7">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="21" ht="24.75" customHeight="1">
@@ -1223,13 +1226,13 @@
       <c r="F21" s="7"/>
       <c r="G21" s="7"/>
       <c t="s" r="H21" s="8">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="I21" s="8"/>
       <c r="J21" s="8"/>
       <c r="K21" s="8"/>
       <c r="L21" s="9">
-        <v>32</v>
+        <v>67</v>
       </c>
       <c r="M21" s="9"/>
       <c t="s" r="N21" s="7">
@@ -1249,13 +1252,13 @@
       <c r="F22" s="7"/>
       <c r="G22" s="7"/>
       <c t="s" r="H22" s="8">
-        <v>35</v>
+        <v>11</v>
       </c>
       <c r="I22" s="8"/>
       <c r="J22" s="8"/>
       <c r="K22" s="8"/>
       <c r="L22" s="9">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="M22" s="9"/>
       <c t="s" r="N22" s="7">
@@ -1267,7 +1270,7 @@
         <v>20</v>
       </c>
       <c t="s" r="B23" s="7">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C23" s="7"/>
       <c r="D23" s="7"/>
@@ -1275,13 +1278,13 @@
       <c r="F23" s="7"/>
       <c r="G23" s="7"/>
       <c t="s" r="H23" s="8">
-        <v>27</v>
+        <v>36</v>
       </c>
       <c r="I23" s="8"/>
       <c r="J23" s="8"/>
       <c r="K23" s="8"/>
       <c r="L23" s="9">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="M23" s="9"/>
       <c t="s" r="N23" s="7">
@@ -1301,13 +1304,13 @@
       <c r="F24" s="7"/>
       <c r="G24" s="7"/>
       <c t="s" r="H24" s="8">
-        <v>38</v>
+        <v>28</v>
       </c>
       <c r="I24" s="8"/>
       <c r="J24" s="8"/>
       <c r="K24" s="8"/>
       <c r="L24" s="9">
-        <v>35</v>
+        <v>20</v>
       </c>
       <c r="M24" s="9"/>
       <c t="s" r="N24" s="7">
@@ -1319,7 +1322,7 @@
         <v>22</v>
       </c>
       <c t="s" r="B25" s="7">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C25" s="7"/>
       <c r="D25" s="7"/>
@@ -1327,13 +1330,13 @@
       <c r="F25" s="7"/>
       <c r="G25" s="7"/>
       <c t="s" r="H25" s="8">
-        <v>8</v>
+        <v>39</v>
       </c>
       <c r="I25" s="8"/>
       <c r="J25" s="8"/>
       <c r="K25" s="8"/>
       <c r="L25" s="9">
-        <v>149.5</v>
+        <v>35</v>
       </c>
       <c r="M25" s="9"/>
       <c t="s" r="N25" s="7">
@@ -1353,17 +1356,17 @@
       <c r="F26" s="7"/>
       <c r="G26" s="7"/>
       <c t="s" r="H26" s="8">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="I26" s="8"/>
       <c r="J26" s="8"/>
       <c r="K26" s="8"/>
       <c r="L26" s="9">
-        <v>80</v>
+        <v>149.5</v>
       </c>
       <c r="M26" s="9"/>
       <c t="s" r="N26" s="7">
-        <v>17</v>
+        <v>9</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -1379,17 +1382,17 @@
       <c r="F27" s="7"/>
       <c r="G27" s="7"/>
       <c t="s" r="H27" s="8">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="I27" s="8"/>
       <c r="J27" s="8"/>
       <c r="K27" s="8"/>
       <c r="L27" s="9">
-        <v>19</v>
+        <v>80</v>
       </c>
       <c r="M27" s="9"/>
       <c t="s" r="N27" s="7">
-        <v>9</v>
+        <v>18</v>
       </c>
     </row>
     <row r="28" ht="25.5" customHeight="1">
@@ -1405,17 +1408,17 @@
       <c r="F28" s="7"/>
       <c r="G28" s="7"/>
       <c t="s" r="H28" s="8">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="I28" s="8"/>
       <c r="J28" s="8"/>
       <c r="K28" s="8"/>
       <c r="L28" s="9">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="M28" s="9"/>
       <c t="s" r="N28" s="7">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="29" ht="24.75" customHeight="1">
@@ -1431,17 +1434,17 @@
       <c r="F29" s="7"/>
       <c r="G29" s="7"/>
       <c t="s" r="H29" s="8">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="I29" s="8"/>
       <c r="J29" s="8"/>
       <c r="K29" s="8"/>
       <c r="L29" s="9">
-        <v>122</v>
+        <v>18</v>
       </c>
       <c r="M29" s="9"/>
       <c t="s" r="N29" s="7">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="30" ht="25.5" customHeight="1">
@@ -1457,13 +1460,13 @@
       <c r="F30" s="7"/>
       <c r="G30" s="7"/>
       <c t="s" r="H30" s="8">
-        <v>38</v>
+        <v>8</v>
       </c>
       <c r="I30" s="8"/>
       <c r="J30" s="8"/>
       <c r="K30" s="8"/>
       <c r="L30" s="9">
-        <v>26</v>
+        <v>122</v>
       </c>
       <c r="M30" s="9"/>
       <c t="s" r="N30" s="7">
@@ -1483,13 +1486,13 @@
       <c r="F31" s="7"/>
       <c r="G31" s="7"/>
       <c t="s" r="H31" s="8">
-        <v>8</v>
+        <v>39</v>
       </c>
       <c r="I31" s="8"/>
       <c r="J31" s="8"/>
       <c r="K31" s="8"/>
       <c r="L31" s="9">
-        <v>56</v>
+        <v>26</v>
       </c>
       <c r="M31" s="9"/>
       <c t="s" r="N31" s="7">
@@ -1509,17 +1512,17 @@
       <c r="F32" s="7"/>
       <c r="G32" s="7"/>
       <c t="s" r="H32" s="8">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="I32" s="8"/>
       <c r="J32" s="8"/>
       <c r="K32" s="8"/>
       <c r="L32" s="9">
-        <v>66.640000000000001</v>
+        <v>56</v>
       </c>
       <c r="M32" s="9"/>
       <c t="s" r="N32" s="7">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="33" ht="25.5" customHeight="1">
@@ -1535,17 +1538,17 @@
       <c r="F33" s="7"/>
       <c r="G33" s="7"/>
       <c t="s" r="H33" s="8">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="I33" s="8"/>
       <c r="J33" s="8"/>
       <c r="K33" s="8"/>
       <c r="L33" s="9">
-        <v>-375</v>
+        <v>66.640000000000001</v>
       </c>
       <c r="M33" s="9"/>
       <c t="s" r="N33" s="7">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="34" ht="24.75" customHeight="1">
@@ -1561,17 +1564,17 @@
       <c r="F34" s="7"/>
       <c r="G34" s="7"/>
       <c t="s" r="H34" s="8">
-        <v>35</v>
+        <v>14</v>
       </c>
       <c r="I34" s="8"/>
       <c r="J34" s="8"/>
       <c r="K34" s="8"/>
       <c r="L34" s="9">
-        <v>14</v>
+        <v>-375</v>
       </c>
       <c r="M34" s="9"/>
       <c t="s" r="N34" s="7">
-        <v>13</v>
+        <v>9</v>
       </c>
     </row>
     <row r="35" ht="25.5" customHeight="1">
@@ -1587,17 +1590,17 @@
       <c r="F35" s="7"/>
       <c r="G35" s="7"/>
       <c t="s" r="H35" s="8">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="I35" s="8"/>
       <c r="J35" s="8"/>
       <c r="K35" s="8"/>
       <c r="L35" s="9">
-        <v>40</v>
+        <v>14</v>
       </c>
       <c r="M35" s="9"/>
       <c t="s" r="N35" s="7">
-        <v>9</v>
+        <v>14</v>
       </c>
     </row>
     <row r="36" ht="24.75" customHeight="1">
@@ -1613,13 +1616,13 @@
       <c r="F36" s="7"/>
       <c r="G36" s="7"/>
       <c t="s" r="H36" s="8">
-        <v>51</v>
+        <v>36</v>
       </c>
       <c r="I36" s="8"/>
       <c r="J36" s="8"/>
       <c r="K36" s="8"/>
       <c r="L36" s="9">
-        <v>2</v>
+        <v>40</v>
       </c>
       <c r="M36" s="9"/>
       <c t="s" r="N36" s="7">
@@ -1631,7 +1634,7 @@
         <v>34</v>
       </c>
       <c t="s" r="B37" s="7">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C37" s="7"/>
       <c r="D37" s="7"/>
@@ -1639,13 +1642,13 @@
       <c r="F37" s="7"/>
       <c r="G37" s="7"/>
       <c t="s" r="H37" s="8">
-        <v>8</v>
+        <v>52</v>
       </c>
       <c r="I37" s="8"/>
       <c r="J37" s="8"/>
       <c r="K37" s="8"/>
       <c r="L37" s="9">
-        <v>188.09999999999999</v>
+        <v>2</v>
       </c>
       <c r="M37" s="9"/>
       <c t="s" r="N37" s="7">
@@ -1671,7 +1674,7 @@
       <c r="J38" s="8"/>
       <c r="K38" s="8"/>
       <c r="L38" s="9">
-        <v>50</v>
+        <v>188.09999999999999</v>
       </c>
       <c r="M38" s="9"/>
       <c t="s" r="N38" s="7">
@@ -1691,13 +1694,13 @@
       <c r="F39" s="7"/>
       <c r="G39" s="7"/>
       <c t="s" r="H39" s="8">
-        <v>55</v>
+        <v>8</v>
       </c>
       <c r="I39" s="8"/>
       <c r="J39" s="8"/>
       <c r="K39" s="8"/>
       <c r="L39" s="9">
-        <v>15</v>
+        <v>50</v>
       </c>
       <c r="M39" s="9"/>
       <c t="s" r="N39" s="7">
@@ -1709,7 +1712,7 @@
         <v>37</v>
       </c>
       <c t="s" r="B40" s="7">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C40" s="7"/>
       <c r="D40" s="7"/>
@@ -1717,13 +1720,13 @@
       <c r="F40" s="7"/>
       <c r="G40" s="7"/>
       <c t="s" r="H40" s="8">
-        <v>35</v>
+        <v>56</v>
       </c>
       <c r="I40" s="8"/>
       <c r="J40" s="8"/>
       <c r="K40" s="8"/>
       <c r="L40" s="9">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="M40" s="9"/>
       <c t="s" r="N40" s="7">
@@ -1743,13 +1746,13 @@
       <c r="F41" s="7"/>
       <c r="G41" s="7"/>
       <c t="s" r="H41" s="8">
-        <v>13</v>
+        <v>36</v>
       </c>
       <c r="I41" s="8"/>
       <c r="J41" s="8"/>
       <c r="K41" s="8"/>
       <c r="L41" s="9">
-        <v>50</v>
+        <v>25</v>
       </c>
       <c r="M41" s="9"/>
       <c t="s" r="N41" s="7">
@@ -1769,13 +1772,13 @@
       <c r="F42" s="7"/>
       <c r="G42" s="7"/>
       <c t="s" r="H42" s="8">
-        <v>59</v>
+        <v>14</v>
       </c>
       <c r="I42" s="8"/>
       <c r="J42" s="8"/>
       <c r="K42" s="8"/>
       <c r="L42" s="9">
-        <v>25</v>
+        <v>50</v>
       </c>
       <c r="M42" s="9"/>
       <c t="s" r="N42" s="7">
@@ -1783,37 +1786,63 @@
       </c>
     </row>
     <row r="43" ht="25.5" customHeight="1">
-      <c r="K43" s="10">
-        <v>1563.24</v>
-      </c>
-      <c r="L43" s="10"/>
-      <c r="M43" s="10"/>
-      <c r="N43" s="10"/>
-    </row>
-    <row r="44" ht="17.25" customHeight="1">
-      <c t="s" r="A44" s="11">
+      <c r="A43" s="6">
+        <v>40</v>
+      </c>
+      <c t="s" r="B43" s="7">
+        <v>59</v>
+      </c>
+      <c r="C43" s="7"/>
+      <c r="D43" s="7"/>
+      <c r="E43" s="7"/>
+      <c r="F43" s="7"/>
+      <c r="G43" s="7"/>
+      <c t="s" r="H43" s="8">
         <v>60</v>
       </c>
-      <c r="B44" s="11"/>
-      <c r="C44" s="11"/>
-      <c r="D44" s="11"/>
-      <c r="E44" s="11"/>
-      <c t="s" r="F44" s="12">
+      <c r="I43" s="8"/>
+      <c r="J43" s="8"/>
+      <c r="K43" s="8"/>
+      <c r="L43" s="9">
+        <v>25</v>
+      </c>
+      <c r="M43" s="9"/>
+      <c t="s" r="N43" s="7">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="44" ht="25.5" customHeight="1">
+      <c r="K44" s="10">
+        <v>1618.24</v>
+      </c>
+      <c r="L44" s="10"/>
+      <c r="M44" s="10"/>
+      <c r="N44" s="10"/>
+    </row>
+    <row r="45" ht="16.5" customHeight="1">
+      <c t="s" r="A45" s="11">
         <v>61</v>
       </c>
-      <c r="G44" s="12"/>
-      <c r="H44" s="13"/>
-      <c t="s" r="I44" s="14">
+      <c r="B45" s="11"/>
+      <c r="C45" s="11"/>
+      <c r="D45" s="11"/>
+      <c r="E45" s="11"/>
+      <c t="s" r="F45" s="12">
         <v>62</v>
       </c>
-      <c r="J44" s="14"/>
-      <c r="K44" s="14"/>
-      <c r="L44" s="14"/>
-      <c r="M44" s="14"/>
-      <c r="N44" s="14"/>
+      <c r="G45" s="12"/>
+      <c r="H45" s="13"/>
+      <c t="s" r="I45" s="14">
+        <v>63</v>
+      </c>
+      <c r="J45" s="14"/>
+      <c r="K45" s="14"/>
+      <c r="L45" s="14"/>
+      <c r="M45" s="14"/>
+      <c r="N45" s="14"/>
     </row>
   </sheetData>
-  <mergeCells count="128">
+  <mergeCells count="131">
     <mergeCell ref="C1:L1"/>
     <mergeCell ref="E2:F2"/>
     <mergeCell ref="G2:I2"/>
@@ -1938,10 +1967,13 @@
     <mergeCell ref="B42:G42"/>
     <mergeCell ref="H42:K42"/>
     <mergeCell ref="L42:M42"/>
-    <mergeCell ref="K43:N43"/>
-    <mergeCell ref="A44:E44"/>
-    <mergeCell ref="F44:G44"/>
-    <mergeCell ref="I44:N44"/>
+    <mergeCell ref="B43:G43"/>
+    <mergeCell ref="H43:K43"/>
+    <mergeCell ref="L43:M43"/>
+    <mergeCell ref="K44:N44"/>
+    <mergeCell ref="A45:E45"/>
+    <mergeCell ref="F45:G45"/>
+    <mergeCell ref="I45:N45"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>
